--- a/Backup/Archivos XLS/Fechas de eventos.xlsx
+++ b/Backup/Archivos XLS/Fechas de eventos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Domingo de Ramos</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Memoria de María, madre de la Iglesia</t>
+  </si>
+  <si>
+    <t>Solemnidad de Corpus Christi</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,6 +607,18 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f>A$11+B16</f>
+        <v>45830</v>
+      </c>
+      <c r="B16" s="5">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Backup/Archivos XLS/Fechas de eventos.xlsx
+++ b/Backup/Archivos XLS/Fechas de eventos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Domingo de Ramos</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Solemnidad de Corpus Christi</t>
+  </si>
+  <si>
+    <t>Fiesta del Sagrado Corazón de Jesús</t>
+  </si>
+  <si>
+    <t>Inmaculado Corazón de María</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,6 +625,31 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f>A$11+B17</f>
+        <v>45835</v>
+      </c>
+      <c r="B17" s="5">
+        <f>+B16+5</f>
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f>A$11+B18</f>
+        <v>45836</v>
+      </c>
+      <c r="B18" s="5">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Backup/Archivos XLS/Fechas de eventos.xlsx
+++ b/Backup/Archivos XLS/Fechas de eventos.xlsx
@@ -90,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +113,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,18 +155,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -434,56 +456,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
+        <f>A$3+B2</f>
+        <v>45721</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>45760</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <f>A$2+B3</f>
-        <v>45721</v>
-      </c>
-      <c r="B3" s="5">
-        <v>-39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="0">A$2+B4</f>
+      <c r="A4" s="6">
+        <f>A$3+B4</f>
         <v>45761</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -491,11 +514,11 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
+      <c r="A5" s="6">
+        <f>A$3+B5</f>
         <v>45762</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -503,11 +526,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
+      <c r="A6" s="6">
+        <f>A$3+B6</f>
         <v>45763</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -515,11 +538,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
+      <c r="A7" s="6">
+        <f>A$3+B7</f>
         <v>45764</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" t="s">
@@ -527,11 +550,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
+      <c r="A8" s="6">
+        <f>A$3+B8</f>
         <v>45765</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" t="s">
@@ -539,11 +562,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
+      <c r="A9" s="6">
+        <f>A$3+B9</f>
         <v>45766</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" t="s">
@@ -551,102 +574,99 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="6">
+        <f>A$3+B10</f>
+        <v>45767</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
+        <f t="shared" ref="A11:A17" si="0">A$10+B11</f>
+        <v>45809</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
-        <v>45767</v>
-      </c>
-      <c r="B11" s="5">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <f>A$11+B12</f>
-        <v>45809</v>
-      </c>
-      <c r="B12" s="5">
-        <v>42</v>
+        <v>45816</v>
+      </c>
+      <c r="B12" s="3">
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <f>A$11+B13</f>
-        <v>45816</v>
-      </c>
-      <c r="B13" s="5">
-        <v>49</v>
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>45817</v>
+      </c>
+      <c r="B13" s="3">
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <f>A$11+B14</f>
-        <v>45817</v>
-      </c>
-      <c r="B14" s="5">
-        <v>50</v>
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>45823</v>
+      </c>
+      <c r="B14" s="3">
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <f>A$11+B15</f>
-        <v>45823</v>
-      </c>
-      <c r="B15" s="5">
-        <v>56</v>
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>45830</v>
+      </c>
+      <c r="B15" s="3">
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <f>A$11+B16</f>
-        <v>45830</v>
-      </c>
-      <c r="B16" s="5">
-        <v>63</v>
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>45835</v>
+      </c>
+      <c r="B16" s="3">
+        <f>+B15+5</f>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <f>A$11+B17</f>
-        <v>45835</v>
-      </c>
-      <c r="B17" s="5">
-        <f>+B16+5</f>
-        <v>68</v>
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>45836</v>
+      </c>
+      <c r="B17" s="3">
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <f>A$11+B18</f>
-        <v>45836</v>
-      </c>
-      <c r="B18" s="5">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
         <v>18</v>
       </c>
     </row>
